--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Recuperador.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Costos/Recuperador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D16DF4B-DC84-43CD-AD1A-214D8D17E846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F8BD1B-809A-40A3-A003-FAA967DF6C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61FB547A-9ECD-42F1-9759-FD979675081E}"/>
   </bookViews>
@@ -33,34 +33,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Recuperador Exterior</t>
-  </si>
-  <si>
-    <t>Recuperador Interior</t>
-  </si>
-  <si>
-    <t>Serpentín Semicilíndrico</t>
-  </si>
-  <si>
-    <t>Serpentín Plano</t>
-  </si>
-  <si>
-    <t>Tubería y Accesorios</t>
-  </si>
-  <si>
-    <t>Ladrillo Chimeneas</t>
-  </si>
-  <si>
     <t>Pegante</t>
   </si>
   <si>
-    <t>Sección Metálica Chimeneas</t>
-  </si>
-  <si>
     <t>Bomba</t>
   </si>
   <si>
     <t>Instrumentacion y control</t>
+  </si>
+  <si>
+    <t>Recuperador exterior</t>
+  </si>
+  <si>
+    <t>Recuperador interior</t>
+  </si>
+  <si>
+    <t>Serpentín semi-cilíndrico</t>
+  </si>
+  <si>
+    <t>Serpentín plano</t>
+  </si>
+  <si>
+    <t>Ladrillo para las chimeneas</t>
+  </si>
+  <si>
+    <t>Tubería y accesorios</t>
+  </si>
+  <si>
+    <t>Sección metálica para las chimeneas</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123D413-88FF-4A93-9B57-02D238509898}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,34 +431,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
